--- a/results/I3_N5_M3_T30_C100_DepCentral_s1_P4_res.xlsx
+++ b/results/I3_N5_M3_T30_C100_DepCentral_s1_P4_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1389.396452796496</v>
+        <v>1829.6683056416</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0130000114440918</v>
+        <v>0.002999782562255859</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>28.64645279649577</v>
+        <v>22.6154668145174</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.788310969284333</v>
+        <v>13.6761004968628</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3.788310969284333</v>
+        <v>4.728939323944863</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1062.89</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>297.86</v>
+        <v>312</v>
       </c>
     </row>
   </sheetData>
@@ -584,10 +584,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -595,10 +595,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -606,10 +606,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -617,7 +617,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -628,7 +628,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -700,7 +700,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -711,7 +711,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -722,7 +722,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -733,7 +733,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -755,7 +755,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -802,7 +802,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -835,7 +835,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -846,7 +846,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -868,7 +868,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -879,7 +879,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -929,7 +929,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>6.304638042085728</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -937,7 +937,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>21.60181147454999</v>
+        <v>24.4838942084626</v>
       </c>
     </row>
     <row r="5">
@@ -945,7 +945,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>20</v>
+        <v>26.08570568301258</v>
       </c>
     </row>
     <row r="6">
@@ -953,7 +953,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>10</v>
+        <v>13.75054662682655</v>
       </c>
     </row>
     <row r="7">
@@ -961,7 +961,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>22.48909622152298</v>
+        <v>16.23964284834953</v>
       </c>
     </row>
     <row r="8">
@@ -969,7 +969,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>27.2093610446023</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9">
@@ -977,7 +977,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>23.69536195791427</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10">
@@ -985,7 +985,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>25.39012244383432</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -999,7 +999,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1034,7 +1034,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -1048,7 +1048,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
@@ -1062,7 +1062,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
@@ -1076,7 +1076,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
         <v>4</v>
@@ -1090,12 +1090,180 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
         <v>5</v>
       </c>
       <c r="D6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>3</v>
+      </c>
+      <c r="B7" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>3</v>
+      </c>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>3</v>
+      </c>
+      <c r="B9" t="n">
+        <v>6</v>
+      </c>
+      <c r="C9" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>3</v>
+      </c>
+      <c r="B10" t="n">
+        <v>6</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>3</v>
+      </c>
+      <c r="B11" t="n">
+        <v>6</v>
+      </c>
+      <c r="C11" t="n">
+        <v>5</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>4</v>
+      </c>
+      <c r="B12" t="n">
+        <v>5</v>
+      </c>
+      <c r="C12" t="n">
+        <v>2</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>4</v>
+      </c>
+      <c r="B13" t="n">
+        <v>5</v>
+      </c>
+      <c r="C13" t="n">
+        <v>3</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>5</v>
+      </c>
+      <c r="B14" t="n">
+        <v>2</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>5</v>
+      </c>
+      <c r="B15" t="n">
+        <v>2</v>
+      </c>
+      <c r="C15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>5</v>
+      </c>
+      <c r="B16" t="n">
+        <v>2</v>
+      </c>
+      <c r="C16" t="n">
+        <v>3</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>5</v>
+      </c>
+      <c r="B17" t="n">
+        <v>2</v>
+      </c>
+      <c r="C17" t="n">
+        <v>4</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>5</v>
+      </c>
+      <c r="B18" t="n">
+        <v>2</v>
+      </c>
+      <c r="C18" t="n">
+        <v>5</v>
+      </c>
+      <c r="D18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1198,7 +1366,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>115.6100000000003</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8">
@@ -1209,7 +1377,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>113.5950000000003</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9">
@@ -1220,7 +1388,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>115.2400000000003</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10">
@@ -1231,7 +1399,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>111.4400000000003</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11">
@@ -1242,7 +1410,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>113.6550000000003</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12">
@@ -1253,7 +1421,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>132.1149999999988</v>
+        <v>192</v>
       </c>
     </row>
     <row r="13">
@@ -1264,7 +1432,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>133.7649999999988</v>
+        <v>194</v>
       </c>
     </row>
     <row r="14">
@@ -1275,7 +1443,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>121.5599999999988</v>
+        <v>189</v>
       </c>
     </row>
     <row r="15">
@@ -1286,7 +1454,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>134.4949999999988</v>
+        <v>193</v>
       </c>
     </row>
     <row r="16">
@@ -1297,7 +1465,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>132.0099999999988</v>
+        <v>181</v>
       </c>
     </row>
     <row r="17">
@@ -1308,7 +1476,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>85.06999999999913</v>
+        <v>248</v>
       </c>
     </row>
     <row r="18">
@@ -1319,7 +1487,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>88.53999999999913</v>
+        <v>253</v>
       </c>
     </row>
     <row r="19">
@@ -1330,7 +1498,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>74.90999999999913</v>
+        <v>254</v>
       </c>
     </row>
     <row r="20">
@@ -1341,7 +1509,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>82.96999999999912</v>
+        <v>254</v>
       </c>
     </row>
     <row r="21">
@@ -1352,7 +1520,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>82.74499999999912</v>
+        <v>243</v>
       </c>
     </row>
     <row r="22">
@@ -1363,7 +1531,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>63.13500000000051</v>
+        <v>98</v>
       </c>
     </row>
     <row r="23">
@@ -1374,7 +1542,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>60.36500000000051</v>
+        <v>101</v>
       </c>
     </row>
     <row r="24">
@@ -1385,7 +1553,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>61.40500000000051</v>
+        <v>101</v>
       </c>
     </row>
     <row r="25">
@@ -1396,7 +1564,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>64.17500000000051</v>
+        <v>99</v>
       </c>
     </row>
     <row r="26">
@@ -1407,7 +1575,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>62.26000000000051</v>
+        <v>90</v>
       </c>
     </row>
     <row r="27">
@@ -1418,7 +1586,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>164.8600000000009</v>
+        <v>140</v>
       </c>
     </row>
     <row r="28">
@@ -1429,7 +1597,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>156.4850000000009</v>
+        <v>140</v>
       </c>
     </row>
     <row r="29">
@@ -1440,7 +1608,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>159.6700000000009</v>
+        <v>139</v>
       </c>
     </row>
     <row r="30">
@@ -1451,7 +1619,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>161.1200000000009</v>
+        <v>143</v>
       </c>
     </row>
     <row r="31">
@@ -1462,7 +1630,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>165.8250000000009</v>
+        <v>137</v>
       </c>
     </row>
     <row r="32">
@@ -1473,7 +1641,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>164.8600000000009</v>
+        <v>248</v>
       </c>
     </row>
     <row r="33">
@@ -1484,7 +1652,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>156.4850000000009</v>
+        <v>253</v>
       </c>
     </row>
     <row r="34">
@@ -1495,7 +1663,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>159.6700000000009</v>
+        <v>254</v>
       </c>
     </row>
     <row r="35">
@@ -1506,7 +1674,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>161.1200000000009</v>
+        <v>254</v>
       </c>
     </row>
     <row r="36">
@@ -1517,7 +1685,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>165.8250000000009</v>
+        <v>243</v>
       </c>
     </row>
     <row r="37">
@@ -1528,7 +1696,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>115.6100000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1539,7 +1707,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>113.5950000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1550,7 +1718,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>115.2400000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1561,7 +1729,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>111.4400000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1572,7 +1740,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>113.6550000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1583,7 +1751,7 @@
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>132.1149999999988</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1594,7 +1762,7 @@
         <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>133.7649999999988</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1605,7 +1773,7 @@
         <v>3</v>
       </c>
       <c r="C44" t="n">
-        <v>121.5599999999988</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1616,7 +1784,7 @@
         <v>4</v>
       </c>
       <c r="C45" t="n">
-        <v>134.4949999999988</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1627,7 +1795,7 @@
         <v>5</v>
       </c>
       <c r="C46" t="n">
-        <v>132.0099999999988</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1674,7 +1842,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>64.86000000000089</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3">
@@ -1685,7 +1853,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>56.48500000000087</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4">
@@ -1696,7 +1864,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>59.67000000000087</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5">
@@ -1707,7 +1875,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>61.12000000000086</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6">
@@ -1718,7 +1886,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>65.8250000000009</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7">
@@ -1729,7 +1897,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>15.6100000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1740,7 +1908,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>13.5950000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1751,7 +1919,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>15.24000000000029</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1762,7 +1930,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>11.4400000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1773,7 +1941,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>13.65500000000029</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1784,7 +1952,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>32.11499999999882</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1795,7 +1963,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>33.76499999999885</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1806,7 +1974,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>21.55999999999884</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1817,7 +1985,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>34.4949999999988</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1828,7 +1996,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>32.00999999999883</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1875,7 +2043,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>11.36</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1886,7 +2054,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>14.055</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1897,7 +2065,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>21.615</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -1908,7 +2076,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>15.815</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -1919,7 +2087,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>9.824999999999999</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -2040,7 +2208,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>12.755</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18">
@@ -2051,7 +2219,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>15.325</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19">
@@ -2062,7 +2230,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>18.795</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20">
@@ -2073,7 +2241,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>16.08</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21">
@@ -2084,7 +2252,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>13.305</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22">
@@ -2095,7 +2263,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23">
@@ -2106,7 +2274,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24">
@@ -2117,7 +2285,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25">
@@ -2128,7 +2296,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26">
@@ -2139,7 +2307,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -2153,7 +2321,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2180,7 +2348,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -2191,7 +2359,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -2202,7 +2370,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -2213,7 +2381,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -2224,7 +2392,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
@@ -2235,7 +2403,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
@@ -2246,7 +2414,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B8" t="n">
         <v>2</v>
@@ -2257,7 +2425,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B9" t="n">
         <v>3</v>
@@ -2268,7 +2436,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B10" t="n">
         <v>4</v>
@@ -2279,7 +2447,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B11" t="n">
         <v>5</v>
@@ -2290,10 +2458,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
@@ -2301,10 +2469,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
@@ -2315,7 +2483,7 @@
         <v>5</v>
       </c>
       <c r="B14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C14" t="n">
         <v>1</v>
@@ -2326,7 +2494,7 @@
         <v>5</v>
       </c>
       <c r="B15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C15" t="n">
         <v>1</v>
@@ -2337,9 +2505,31 @@
         <v>5</v>
       </c>
       <c r="B16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>5</v>
+      </c>
+      <c r="B17" t="n">
+        <v>4</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>5</v>
+      </c>
+      <c r="B18" t="n">
+        <v>5</v>
+      </c>
+      <c r="C18" t="n">
         <v>1</v>
       </c>
     </row>
